--- a/DBmaster_example.xlsx
+++ b/DBmaster_example.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flat3\product\library_db_refactor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD856241-E838-47C4-8B97-32CD96C57739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B1357D-E620-4EB2-83FB-C3768A1D31D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{9D957AF1-E9C4-44D9-9F0B-E78F93A050EF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{9D957AF1-E9C4-44D9-9F0B-E78F93A050EF}"/>
   </bookViews>
   <sheets>
     <sheet name="database" sheetId="1" r:id="rId1"/>
     <sheet name="category" sheetId="3" r:id="rId2"/>
     <sheet name="available_area" sheetId="4" r:id="rId3"/>
-    <sheet name="literature_language" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">database!$A$13:$W$17</definedName>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="177">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -872,28 +871,6 @@
   </si>
   <si>
     <t>literature_language_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日</t>
-    <rPh sb="0" eb="1">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>欧</t>
-    <rPh sb="0" eb="1">
-      <t>オウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EN</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1122,7 +1099,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1463,7 +1440,7 @@
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -1485,16 +1462,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -1545,7 +1522,7 @@
         <v>18</v>
       </c>
       <c r="X1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="56.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
@@ -1562,7 +1539,7 @@
         <v>21</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -1600,10 +1577,10 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>27</v>
@@ -1645,10 +1622,10 @@
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>32</v>
@@ -2254,8 +2231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A5FF8D-CD06-4282-B871-64251A7682F5}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2479,13 +2456,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D16" t="s">
         <v>175</v>
-      </c>
-      <c r="C16" t="s">
-        <v>176</v>
-      </c>
-      <c r="D16" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2493,13 +2470,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D17" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2512,7 +2489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452FE504-991C-4C20-8D26-7C96BFF62DA7}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -2606,53 +2583,4 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94CDDC5D-6D9C-4A0F-A763-795D1FA021C8}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>